--- a/COTIZACIONES/PHYWE/PHY 2850-24 UNAD 2024/SP PHY 2850-24 UNAD 2024.xlsx
+++ b/COTIZACIONES/PHYWE/PHY 2850-24 UNAD 2024/SP PHY 2850-24 UNAD 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.herrera\programmingProjects\ofertaElectroInterfaz\COTIZACIONES\PHYWE\PHY 2850-24 UNAD 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E4E31-904C-4EC9-8051-A77E3AFA8359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB8A8FC-3155-45FA-A376-444DE3EEAC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1890" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1296,6 +1296,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1308,7 +1319,7 @@
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1502,13 +1513,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1532,6 +1539,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1561,6 +1595,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="PROYECTADO 2021"/>
       <sheetName val="CONSOLID PROYEC "/>
@@ -1964,18 +2001,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="90" style="1" customWidth="1"/>
+    <col min="1" max="1" width="90" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
@@ -1990,198 +2027,198 @@
     <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="3:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="82" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="10">
+      <c r="E4" s="81"/>
+      <c r="F4" s="10">
         <f>GASTOS!F22</f>
         <v>0</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-    </row>
-    <row r="6" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-    </row>
-    <row r="7" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="7" t="s">
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-    </row>
-    <row r="8" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-    </row>
-    <row r="9" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="93"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-    </row>
-    <row r="10" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-    </row>
-    <row r="11" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="7" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="3:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="96"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="61" t="s">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
+      <c r="D16" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="63"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="17" t="s">
         <v>21</v>
       </c>
@@ -2193,25 +2230,25 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="63"/>
+      <c r="D17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="79"/>
+      <c r="F17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="63"/>
       <c r="M17" s="18"/>
       <c r="O17" s="2"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
+      <c r="A18" s="64"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="64"/>
+      <c r="F18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -2224,22 +2261,22 @@
     </row>
     <row r="19" spans="1:17" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>30</v>
@@ -2264,23 +2301,23 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="23">
+      <c r="C20" s="23">
         <v>12.404999999999999</v>
       </c>
-      <c r="C20" s="23">
+      <c r="D20" s="23">
         <v>45</v>
       </c>
-      <c r="D20" s="23">
+      <c r="E20" s="23">
         <v>35</v>
       </c>
-      <c r="E20" s="23">
+      <c r="F20" s="23">
         <v>25</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>38</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>39</v>
@@ -2303,23 +2340,23 @@
       <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="23">
+      <c r="C21" s="23">
         <v>14.29</v>
       </c>
-      <c r="C21" s="23">
+      <c r="D21" s="23">
         <v>120</v>
       </c>
-      <c r="D21" s="23">
+      <c r="E21" s="23">
         <v>60</v>
       </c>
-      <c r="E21" s="23">
+      <c r="F21" s="23">
         <v>55</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>43</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>39</v>
@@ -2342,23 +2379,23 @@
       <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="23">
+      <c r="C22" s="23">
         <v>0.68400000000000005</v>
-      </c>
-      <c r="C22" s="23">
-        <v>4</v>
       </c>
       <c r="D22" s="23">
         <v>4</v>
       </c>
       <c r="E22" s="23">
+        <v>4</v>
+      </c>
+      <c r="F22" s="23">
         <v>9</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>39</v>
@@ -2381,23 +2418,23 @@
       <c r="M22" s="26"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="23">
+      <c r="C23" s="23">
         <v>0.68400000000000005</v>
-      </c>
-      <c r="C23" s="23">
-        <v>4</v>
       </c>
       <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="23">
         <v>9</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>39</v>
@@ -2420,23 +2457,23 @@
       <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="23">
+      <c r="C24" s="23">
         <v>0.08</v>
       </c>
-      <c r="C24" s="23">
+      <c r="D24" s="23">
         <v>9</v>
-      </c>
-      <c r="D24" s="23">
-        <v>5</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>47</v>
+      <c r="F24" s="23">
+        <v>5</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>39</v>
@@ -2459,23 +2496,23 @@
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="23">
+      <c r="C25" s="23">
         <v>0.08</v>
       </c>
-      <c r="C25" s="23">
+      <c r="D25" s="23">
         <v>9</v>
-      </c>
-      <c r="D25" s="23">
-        <v>5</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
       </c>
-      <c r="F25" s="39" t="s">
-        <v>47</v>
+      <c r="F25" s="23">
+        <v>5</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>39</v>
@@ -2498,23 +2535,23 @@
       <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="23">
+      <c r="C26" s="23">
         <v>0.12</v>
       </c>
-      <c r="C26" s="23">
+      <c r="D26" s="23">
         <v>9</v>
-      </c>
-      <c r="D26" s="23">
-        <v>5</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
       </c>
-      <c r="F26" s="39" t="s">
-        <v>49</v>
+      <c r="F26" s="23">
+        <v>5</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>39</v>
@@ -2537,23 +2574,23 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="23">
+      <c r="C27" s="23">
         <v>0.12</v>
       </c>
-      <c r="C27" s="23">
+      <c r="D27" s="23">
         <v>9</v>
-      </c>
-      <c r="D27" s="23">
-        <v>5</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
       </c>
-      <c r="F27" s="39" t="s">
-        <v>49</v>
+      <c r="F27" s="23">
+        <v>5</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>39</v>
@@ -2576,23 +2613,23 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="23">
+      <c r="C28" s="23">
         <v>0.17</v>
       </c>
-      <c r="C28" s="23">
+      <c r="D28" s="23">
         <v>9</v>
-      </c>
-      <c r="D28" s="23">
-        <v>5</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>51</v>
+      <c r="F28" s="23">
+        <v>5</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>39</v>
@@ -2615,23 +2652,23 @@
       <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="23">
+      <c r="C29" s="23">
         <v>0.17</v>
       </c>
-      <c r="C29" s="23">
+      <c r="D29" s="23">
         <v>9</v>
-      </c>
-      <c r="D29" s="23">
-        <v>5</v>
       </c>
       <c r="E29" s="23">
         <v>5</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>51</v>
+      <c r="F29" s="23">
+        <v>5</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>39</v>
@@ -2654,23 +2691,23 @@
       <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="23">
+      <c r="C30" s="23">
         <v>1.8520000000000001</v>
       </c>
-      <c r="C30" s="23">
+      <c r="D30" s="23">
         <v>25</v>
       </c>
-      <c r="D30" s="23">
+      <c r="E30" s="23">
         <v>15</v>
       </c>
-      <c r="E30" s="23">
+      <c r="F30" s="23">
         <v>25</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>53</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>39</v>
@@ -2693,23 +2730,23 @@
       <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="23">
+      <c r="C31" s="23">
         <v>5.53</v>
       </c>
-      <c r="C31" s="23">
+      <c r="D31" s="23">
         <v>45</v>
       </c>
-      <c r="D31" s="23">
+      <c r="E31" s="23">
         <v>35</v>
       </c>
-      <c r="E31" s="23">
+      <c r="F31" s="23">
         <v>25</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>39</v>
@@ -2732,23 +2769,23 @@
       <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="23">
+      <c r="C32" s="23">
         <v>2</v>
       </c>
-      <c r="C32" s="23">
+      <c r="D32" s="23">
         <v>45</v>
       </c>
-      <c r="D32" s="23">
+      <c r="E32" s="23">
         <v>35</v>
       </c>
-      <c r="E32" s="23">
+      <c r="F32" s="23">
         <v>25</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>39</v>
@@ -2771,23 +2808,23 @@
       <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="23">
+      <c r="C33" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C33" s="23">
+      <c r="D33" s="23">
         <v>120</v>
-      </c>
-      <c r="D33" s="23">
-        <v>25</v>
       </c>
       <c r="E33" s="23">
         <v>25</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>59</v>
+      <c r="F33" s="23">
+        <v>25</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>39</v>
@@ -2810,23 +2847,23 @@
       <c r="M33" s="26"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="23">
+      <c r="C34" s="23">
         <v>5.53</v>
       </c>
-      <c r="C34" s="23">
+      <c r="D34" s="23">
         <v>45</v>
       </c>
-      <c r="D34" s="23">
+      <c r="E34" s="23">
         <v>35</v>
       </c>
-      <c r="E34" s="23">
+      <c r="F34" s="23">
         <v>25</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>39</v>
@@ -2849,23 +2886,23 @@
       <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="23">
+      <c r="C35" s="23">
         <v>2</v>
       </c>
-      <c r="C35" s="23">
+      <c r="D35" s="23">
         <v>45</v>
       </c>
-      <c r="D35" s="23">
+      <c r="E35" s="23">
         <v>35</v>
       </c>
-      <c r="E35" s="23">
+      <c r="F35" s="23">
         <v>25</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>39</v>
@@ -2888,23 +2925,23 @@
       <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="23">
+      <c r="C36" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C36" s="23">
+      <c r="D36" s="23">
         <v>120</v>
-      </c>
-      <c r="D36" s="23">
-        <v>25</v>
       </c>
       <c r="E36" s="23">
         <v>25</v>
       </c>
-      <c r="F36" s="39" t="s">
-        <v>59</v>
+      <c r="F36" s="23">
+        <v>25</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>39</v>
@@ -2927,23 +2964,23 @@
       <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="23">
+      <c r="C37" s="23">
         <v>8.5</v>
       </c>
-      <c r="C37" s="23">
+      <c r="D37" s="23">
         <v>100</v>
-      </c>
-      <c r="D37" s="23">
-        <v>25</v>
       </c>
       <c r="E37" s="23">
         <v>25</v>
       </c>
-      <c r="F37" s="39" t="s">
-        <v>61</v>
+      <c r="F37" s="23">
+        <v>25</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>39</v>
@@ -2966,23 +3003,23 @@
       <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="23">
+      <c r="C38" s="23">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C38" s="23">
+      <c r="D38" s="23">
         <v>55</v>
       </c>
-      <c r="D38" s="23">
+      <c r="E38" s="23">
         <v>35</v>
       </c>
-      <c r="E38" s="23">
+      <c r="F38" s="23">
         <v>20</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>39</v>
@@ -3005,23 +3042,23 @@
       <c r="M38" s="26"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="23">
+      <c r="C39" s="23">
         <v>0.38</v>
       </c>
-      <c r="C39" s="23">
+      <c r="D39" s="23">
         <v>15</v>
-      </c>
-      <c r="D39" s="23">
-        <v>3</v>
       </c>
       <c r="E39" s="23">
         <v>3</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>65</v>
+      <c r="F39" s="23">
+        <v>3</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>39</v>
@@ -3044,23 +3081,23 @@
       <c r="M39" s="26"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="23">
+      <c r="C40" s="23">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C40" s="23">
+      <c r="D40" s="23">
         <v>55</v>
       </c>
-      <c r="D40" s="23">
+      <c r="E40" s="23">
         <v>35</v>
       </c>
-      <c r="E40" s="23">
+      <c r="F40" s="23">
         <v>20</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>39</v>
@@ -3083,23 +3120,23 @@
       <c r="M40" s="26"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="23">
+      <c r="C41" s="23">
         <v>0.38</v>
       </c>
-      <c r="C41" s="23">
+      <c r="D41" s="23">
         <v>15</v>
-      </c>
-      <c r="D41" s="23">
-        <v>3</v>
       </c>
       <c r="E41" s="23">
         <v>3</v>
       </c>
-      <c r="F41" s="39" t="s">
-        <v>65</v>
+      <c r="F41" s="23">
+        <v>3</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>39</v>
@@ -3122,23 +3159,23 @@
       <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="23">
+      <c r="C42" s="23">
         <v>2</v>
       </c>
-      <c r="C42" s="23">
+      <c r="D42" s="23">
         <v>45</v>
       </c>
-      <c r="D42" s="23">
+      <c r="E42" s="23">
         <v>35</v>
       </c>
-      <c r="E42" s="23">
+      <c r="F42" s="23">
         <v>25</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>39</v>
@@ -3161,23 +3198,23 @@
       <c r="M42" s="26"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="23">
+      <c r="C43" s="23">
         <v>0.68400000000000005</v>
-      </c>
-      <c r="C43" s="23">
-        <v>4</v>
       </c>
       <c r="D43" s="23">
         <v>4</v>
       </c>
       <c r="E43" s="23">
+        <v>4</v>
+      </c>
+      <c r="F43" s="23">
         <v>9</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>39</v>
@@ -3200,23 +3237,23 @@
       <c r="M43" s="26"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="23">
+      <c r="C44" s="23">
         <v>0.2</v>
-      </c>
-      <c r="C44" s="23">
-        <v>4</v>
       </c>
       <c r="D44" s="23">
         <v>4</v>
       </c>
       <c r="E44" s="23">
+        <v>4</v>
+      </c>
+      <c r="F44" s="23">
         <v>9</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>39</v>
@@ -3239,23 +3276,23 @@
       <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="23">
+      <c r="C45" s="23">
         <v>0.08</v>
       </c>
-      <c r="C45" s="23">
+      <c r="D45" s="23">
         <v>9</v>
-      </c>
-      <c r="D45" s="23">
-        <v>5</v>
       </c>
       <c r="E45" s="23">
         <v>5</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>47</v>
+      <c r="F45" s="23">
+        <v>5</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>39</v>
@@ -3278,23 +3315,23 @@
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="23">
+      <c r="C46" s="23">
         <v>0.12</v>
       </c>
-      <c r="C46" s="23">
+      <c r="D46" s="23">
         <v>9</v>
-      </c>
-      <c r="D46" s="23">
-        <v>5</v>
       </c>
       <c r="E46" s="23">
         <v>5</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>49</v>
+      <c r="F46" s="23">
+        <v>5</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>39</v>
@@ -3317,23 +3354,23 @@
       <c r="M46" s="26"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="23">
+      <c r="C47" s="23">
         <v>0.17</v>
       </c>
-      <c r="C47" s="23">
+      <c r="D47" s="23">
         <v>9</v>
-      </c>
-      <c r="D47" s="23">
-        <v>5</v>
       </c>
       <c r="E47" s="23">
         <v>5</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>51</v>
+      <c r="F47" s="23">
+        <v>5</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>39</v>
@@ -3356,23 +3393,23 @@
       <c r="M47" s="26"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="23">
+      <c r="C48" s="23">
         <v>0.12</v>
       </c>
-      <c r="C48" s="23">
+      <c r="D48" s="23">
         <v>15</v>
-      </c>
-      <c r="D48" s="23">
-        <v>5</v>
       </c>
       <c r="E48" s="23">
         <v>5</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>69</v>
+      <c r="F48" s="23">
+        <v>5</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>39</v>
@@ -3395,23 +3432,23 @@
       <c r="M48" s="26"/>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="23">
+      <c r="C49" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C49" s="23">
+      <c r="D49" s="23">
         <v>120</v>
-      </c>
-      <c r="D49" s="23">
-        <v>25</v>
       </c>
       <c r="E49" s="23">
         <v>25</v>
       </c>
-      <c r="F49" s="39" t="s">
-        <v>59</v>
+      <c r="F49" s="23">
+        <v>25</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>39</v>
@@ -3434,23 +3471,23 @@
       <c r="M49" s="26"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="23">
+      <c r="C50" s="23">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C50" s="23">
+      <c r="D50" s="23">
         <v>55</v>
       </c>
-      <c r="D50" s="23">
+      <c r="E50" s="23">
         <v>35</v>
       </c>
-      <c r="E50" s="23">
+      <c r="F50" s="23">
         <v>20</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>39</v>
@@ -3473,23 +3510,23 @@
       <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="23">
+      <c r="C51" s="23">
         <v>0.38</v>
       </c>
-      <c r="C51" s="23">
+      <c r="D51" s="23">
         <v>15</v>
-      </c>
-      <c r="D51" s="23">
-        <v>3</v>
       </c>
       <c r="E51" s="23">
         <v>3</v>
       </c>
-      <c r="F51" s="39" t="s">
-        <v>65</v>
+      <c r="F51" s="23">
+        <v>3</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>39</v>
@@ -3512,23 +3549,23 @@
       <c r="M51" s="26"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="23">
+      <c r="C52" s="23">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C52" s="23">
+      <c r="D52" s="23">
         <v>55</v>
       </c>
-      <c r="D52" s="23">
+      <c r="E52" s="23">
         <v>35</v>
       </c>
-      <c r="E52" s="23">
+      <c r="F52" s="23">
         <v>20</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>39</v>
@@ -3551,23 +3588,23 @@
       <c r="M52" s="26"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="23">
+      <c r="C53" s="23">
         <v>0.38</v>
       </c>
-      <c r="C53" s="23">
+      <c r="D53" s="23">
         <v>15</v>
-      </c>
-      <c r="D53" s="23">
-        <v>3</v>
       </c>
       <c r="E53" s="23">
         <v>3</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>65</v>
+      <c r="F53" s="23">
+        <v>3</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>39</v>
@@ -3590,23 +3627,23 @@
       <c r="M53" s="26"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="23">
+      <c r="C54" s="23">
         <v>5.53</v>
       </c>
-      <c r="C54" s="23">
+      <c r="D54" s="23">
         <v>45</v>
       </c>
-      <c r="D54" s="23">
+      <c r="E54" s="23">
         <v>35</v>
       </c>
-      <c r="E54" s="23">
+      <c r="F54" s="23">
         <v>25</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>39</v>
@@ -3629,23 +3666,23 @@
       <c r="M54" s="26"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="23">
+      <c r="C55" s="23">
         <v>2</v>
       </c>
-      <c r="C55" s="23">
+      <c r="D55" s="23">
         <v>45</v>
       </c>
-      <c r="D55" s="23">
+      <c r="E55" s="23">
         <v>35</v>
       </c>
-      <c r="E55" s="23">
+      <c r="F55" s="23">
         <v>25</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>39</v>
@@ -3668,23 +3705,23 @@
       <c r="M55" s="26"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="23">
+      <c r="C56" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C56" s="23">
+      <c r="D56" s="23">
         <v>120</v>
-      </c>
-      <c r="D56" s="23">
-        <v>25</v>
       </c>
       <c r="E56" s="23">
         <v>25</v>
       </c>
-      <c r="F56" s="39" t="s">
-        <v>59</v>
+      <c r="F56" s="23">
+        <v>25</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>39</v>
@@ -3707,23 +3744,23 @@
       <c r="M56" s="26"/>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="23">
+      <c r="C57" s="23">
         <v>0.21099999999999999</v>
-      </c>
-      <c r="C57" s="23">
-        <v>4</v>
       </c>
       <c r="D57" s="23">
         <v>4</v>
       </c>
       <c r="E57" s="23">
+        <v>4</v>
+      </c>
+      <c r="F57" s="23">
         <v>9</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>71</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>39</v>
@@ -3746,23 +3783,23 @@
       <c r="M57" s="26"/>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="23">
+      <c r="C58" s="23">
         <v>0.2</v>
-      </c>
-      <c r="C58" s="23">
-        <v>4</v>
       </c>
       <c r="D58" s="23">
         <v>4</v>
       </c>
       <c r="E58" s="23">
+        <v>4</v>
+      </c>
+      <c r="F58" s="23">
         <v>9</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>39</v>
@@ -3785,23 +3822,23 @@
       <c r="M58" s="26"/>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="23">
+      <c r="C59" s="23">
         <v>0.2</v>
-      </c>
-      <c r="C59" s="23">
-        <v>4</v>
       </c>
       <c r="D59" s="23">
         <v>4</v>
       </c>
       <c r="E59" s="23">
+        <v>4</v>
+      </c>
+      <c r="F59" s="23">
         <v>9</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>39</v>
@@ -3824,23 +3861,23 @@
       <c r="M59" s="26"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="23">
+      <c r="C60" s="23">
         <v>0.2</v>
-      </c>
-      <c r="C60" s="23">
-        <v>4</v>
       </c>
       <c r="D60" s="23">
         <v>4</v>
       </c>
       <c r="E60" s="23">
+        <v>4</v>
+      </c>
+      <c r="F60" s="23">
         <v>9</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>39</v>
@@ -3863,23 +3900,23 @@
       <c r="M60" s="26"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="23">
+      <c r="C61" s="23">
         <v>0.08</v>
       </c>
-      <c r="C61" s="23">
+      <c r="D61" s="23">
         <v>9</v>
-      </c>
-      <c r="D61" s="23">
-        <v>5</v>
       </c>
       <c r="E61" s="23">
         <v>5</v>
       </c>
-      <c r="F61" s="39" t="s">
-        <v>47</v>
+      <c r="F61" s="23">
+        <v>5</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>39</v>
@@ -3902,23 +3939,23 @@
       <c r="M61" s="26"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="23">
+      <c r="C62" s="23">
         <v>0.17</v>
-      </c>
-      <c r="C62" s="23">
-        <v>4</v>
       </c>
       <c r="D62" s="23">
         <v>4</v>
       </c>
       <c r="E62" s="23">
+        <v>4</v>
+      </c>
+      <c r="F62" s="23">
         <v>9</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>51</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>39</v>
@@ -3941,23 +3978,23 @@
       <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="23">
+      <c r="C63" s="23">
         <v>0.17</v>
-      </c>
-      <c r="C63" s="23">
-        <v>4</v>
       </c>
       <c r="D63" s="23">
         <v>4</v>
       </c>
       <c r="E63" s="23">
+        <v>4</v>
+      </c>
+      <c r="F63" s="23">
         <v>9</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>51</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>39</v>
@@ -3980,23 +4017,23 @@
       <c r="M63" s="26"/>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="23">
+      <c r="C64" s="23">
         <v>0.17</v>
-      </c>
-      <c r="C64" s="23">
-        <v>4</v>
       </c>
       <c r="D64" s="23">
         <v>4</v>
       </c>
       <c r="E64" s="23">
+        <v>4</v>
+      </c>
+      <c r="F64" s="23">
         <v>9</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>51</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>39</v>
@@ -4019,23 +4056,23 @@
       <c r="M64" s="26"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="23">
+      <c r="C65" s="23">
         <v>0.12</v>
       </c>
-      <c r="C65" s="23">
+      <c r="D65" s="23">
         <v>15</v>
-      </c>
-      <c r="D65" s="23">
-        <v>5</v>
       </c>
       <c r="E65" s="23">
         <v>5</v>
       </c>
-      <c r="F65" s="39" t="s">
-        <v>69</v>
+      <c r="F65" s="23">
+        <v>5</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>39</v>
@@ -4058,23 +4095,23 @@
       <c r="M65" s="26"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="23">
+      <c r="C66" s="23">
         <v>0.497</v>
       </c>
-      <c r="C66" s="23">
+      <c r="D66" s="23">
         <v>10</v>
-      </c>
-      <c r="D66" s="23">
-        <v>9</v>
       </c>
       <c r="E66" s="23">
         <v>9</v>
       </c>
-      <c r="F66" s="39" t="s">
-        <v>73</v>
+      <c r="F66" s="23">
+        <v>9</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>39</v>
@@ -4097,23 +4134,23 @@
       <c r="M66" s="26"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="23">
+      <c r="C67" s="23">
         <v>0.497</v>
       </c>
-      <c r="C67" s="23">
+      <c r="D67" s="23">
         <v>10</v>
-      </c>
-      <c r="D67" s="23">
-        <v>9</v>
       </c>
       <c r="E67" s="23">
         <v>9</v>
       </c>
-      <c r="F67" s="39" t="s">
-        <v>73</v>
+      <c r="F67" s="23">
+        <v>9</v>
       </c>
       <c r="G67" s="23" t="s">
         <v>39</v>
@@ -4136,23 +4173,23 @@
       <c r="M67" s="26"/>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="23">
+      <c r="C68" s="23">
         <v>15.2</v>
       </c>
-      <c r="C68" s="23">
+      <c r="D68" s="23">
         <v>55</v>
       </c>
-      <c r="D68" s="23">
+      <c r="E68" s="23">
         <v>45</v>
       </c>
-      <c r="E68" s="23">
+      <c r="F68" s="23">
         <v>35</v>
-      </c>
-      <c r="F68" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>39</v>
@@ -4175,23 +4212,23 @@
       <c r="M68" s="26"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="23">
+      <c r="C69" s="23">
         <v>15.2</v>
       </c>
-      <c r="C69" s="23">
+      <c r="D69" s="23">
         <v>55</v>
       </c>
-      <c r="D69" s="23">
+      <c r="E69" s="23">
         <v>45</v>
       </c>
-      <c r="E69" s="23">
+      <c r="F69" s="23">
         <v>35</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="G69" s="23" t="s">
         <v>39</v>
@@ -4214,23 +4251,23 @@
       <c r="M69" s="26"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="23">
+      <c r="C70" s="23">
         <v>2.41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="D70" s="23">
         <v>55</v>
       </c>
-      <c r="D70" s="23">
+      <c r="E70" s="23">
         <v>45</v>
       </c>
-      <c r="E70" s="23">
+      <c r="F70" s="23">
         <v>35</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>39</v>
@@ -4253,23 +4290,23 @@
       <c r="M70" s="26"/>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="23">
+      <c r="C71" s="23">
         <v>4</v>
       </c>
-      <c r="C71" s="23">
+      <c r="D71" s="23">
         <v>45</v>
-      </c>
-      <c r="D71" s="23">
-        <v>30</v>
       </c>
       <c r="E71" s="23">
         <v>30</v>
       </c>
-      <c r="F71" s="39" t="s">
-        <v>79</v>
+      <c r="F71" s="23">
+        <v>30</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>39</v>
@@ -4292,23 +4329,23 @@
       <c r="M71" s="26"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="23">
+      <c r="C72" s="23">
         <v>2.41</v>
       </c>
-      <c r="C72" s="23">
+      <c r="D72" s="23">
         <v>55</v>
       </c>
-      <c r="D72" s="23">
+      <c r="E72" s="23">
         <v>45</v>
       </c>
-      <c r="E72" s="23">
+      <c r="F72" s="23">
         <v>35</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>39</v>
@@ -4331,23 +4368,23 @@
       <c r="M72" s="26"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="23">
+      <c r="C73" s="23">
         <v>4</v>
       </c>
-      <c r="C73" s="23">
+      <c r="D73" s="23">
         <v>45</v>
-      </c>
-      <c r="D73" s="23">
-        <v>30</v>
       </c>
       <c r="E73" s="23">
         <v>30</v>
       </c>
-      <c r="F73" s="39" t="s">
-        <v>79</v>
+      <c r="F73" s="23">
+        <v>30</v>
       </c>
       <c r="G73" s="23" t="s">
         <v>39</v>
@@ -4370,23 +4407,23 @@
       <c r="M73" s="26"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="23">
+      <c r="C74" s="23">
         <v>2.41</v>
       </c>
-      <c r="C74" s="23">
+      <c r="D74" s="23">
         <v>55</v>
       </c>
-      <c r="D74" s="23">
+      <c r="E74" s="23">
         <v>45</v>
       </c>
-      <c r="E74" s="23">
+      <c r="F74" s="23">
         <v>35</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>39</v>
@@ -4409,23 +4446,23 @@
       <c r="M74" s="26"/>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="23">
+      <c r="C75" s="23">
         <v>4</v>
       </c>
-      <c r="C75" s="23">
+      <c r="D75" s="23">
         <v>45</v>
-      </c>
-      <c r="D75" s="23">
-        <v>30</v>
       </c>
       <c r="E75" s="23">
         <v>30</v>
       </c>
-      <c r="F75" s="39" t="s">
-        <v>79</v>
+      <c r="F75" s="23">
+        <v>30</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>39</v>
@@ -4448,23 +4485,23 @@
       <c r="M75" s="26"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="23">
+      <c r="C76" s="23">
         <v>2.41</v>
       </c>
-      <c r="C76" s="23">
+      <c r="D76" s="23">
         <v>55</v>
       </c>
-      <c r="D76" s="23">
+      <c r="E76" s="23">
         <v>45</v>
       </c>
-      <c r="E76" s="23">
+      <c r="F76" s="23">
         <v>35</v>
-      </c>
-      <c r="F76" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="G76" s="23" t="s">
         <v>39</v>
@@ -4487,23 +4524,23 @@
       <c r="M76" s="26"/>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="23">
+      <c r="C77" s="23">
         <v>4</v>
       </c>
-      <c r="C77" s="23">
+      <c r="D77" s="23">
         <v>45</v>
-      </c>
-      <c r="D77" s="23">
-        <v>30</v>
       </c>
       <c r="E77" s="23">
         <v>30</v>
       </c>
-      <c r="F77" s="39" t="s">
-        <v>79</v>
+      <c r="F77" s="23">
+        <v>30</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>39</v>
@@ -4526,23 +4563,23 @@
       <c r="M77" s="26"/>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="23">
+      <c r="C78" s="23">
         <v>0.57599999999999996</v>
-      </c>
-      <c r="C78" s="23">
-        <v>10</v>
       </c>
       <c r="D78" s="23">
         <v>10</v>
       </c>
       <c r="E78" s="23">
+        <v>10</v>
+      </c>
+      <c r="F78" s="23">
         <v>4</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>39</v>
@@ -4565,23 +4602,23 @@
       <c r="M78" s="26"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="23">
+      <c r="C79" s="23">
         <v>0.57599999999999996</v>
-      </c>
-      <c r="C79" s="23">
-        <v>10</v>
       </c>
       <c r="D79" s="23">
         <v>10</v>
       </c>
       <c r="E79" s="23">
+        <v>10</v>
+      </c>
+      <c r="F79" s="23">
         <v>4</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>39</v>
@@ -4604,23 +4641,23 @@
       <c r="M79" s="26"/>
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="23">
+      <c r="C80" s="23">
         <v>0.57599999999999996</v>
-      </c>
-      <c r="C80" s="23">
-        <v>10</v>
       </c>
       <c r="D80" s="23">
         <v>10</v>
       </c>
       <c r="E80" s="23">
+        <v>10</v>
+      </c>
+      <c r="F80" s="23">
         <v>4</v>
-      </c>
-      <c r="F80" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>39</v>
@@ -4643,23 +4680,23 @@
       <c r="M80" s="26"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="23">
+      <c r="C81" s="23">
         <v>0.57599999999999996</v>
-      </c>
-      <c r="C81" s="23">
-        <v>10</v>
       </c>
       <c r="D81" s="23">
         <v>10</v>
       </c>
       <c r="E81" s="23">
+        <v>10</v>
+      </c>
+      <c r="F81" s="23">
         <v>4</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>39</v>
@@ -4682,23 +4719,23 @@
       <c r="M81" s="26"/>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="23">
+      <c r="C82" s="23">
         <v>0.38</v>
       </c>
-      <c r="C82" s="23">
+      <c r="D82" s="23">
         <v>15</v>
-      </c>
-      <c r="D82" s="23">
-        <v>3</v>
       </c>
       <c r="E82" s="23">
         <v>3</v>
       </c>
-      <c r="F82" s="39" t="s">
-        <v>65</v>
+      <c r="F82" s="23">
+        <v>3</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>39</v>
@@ -4721,23 +4758,23 @@
       <c r="M82" s="26"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="23">
+      <c r="C83" s="23">
         <v>0.38</v>
       </c>
-      <c r="C83" s="23">
+      <c r="D83" s="23">
         <v>15</v>
-      </c>
-      <c r="D83" s="23">
-        <v>3</v>
       </c>
       <c r="E83" s="23">
         <v>3</v>
       </c>
-      <c r="F83" s="39" t="s">
-        <v>65</v>
+      <c r="F83" s="23">
+        <v>3</v>
       </c>
       <c r="G83" s="23" t="s">
         <v>39</v>
@@ -4760,23 +4797,23 @@
       <c r="M83" s="26"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="23">
+      <c r="C84" s="23">
         <v>6.5</v>
       </c>
-      <c r="C84" s="23">
+      <c r="D84" s="23">
         <v>55</v>
       </c>
-      <c r="D84" s="23">
+      <c r="E84" s="23">
         <v>35</v>
       </c>
-      <c r="E84" s="23">
+      <c r="F84" s="23">
         <v>20</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>83</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>39</v>
@@ -4799,23 +4836,23 @@
       <c r="M84" s="26"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="23">
+      <c r="C85" s="23">
         <v>6.88</v>
       </c>
-      <c r="C85" s="23">
+      <c r="D85" s="23">
         <v>55</v>
       </c>
-      <c r="D85" s="23">
+      <c r="E85" s="23">
         <v>35</v>
       </c>
-      <c r="E85" s="23">
+      <c r="F85" s="23">
         <v>20</v>
-      </c>
-      <c r="F85" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="G85" s="23" t="s">
         <v>39</v>
@@ -4838,23 +4875,23 @@
       <c r="M85" s="26"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="23">
+      <c r="C86" s="23">
         <v>0.87</v>
       </c>
-      <c r="C86" s="23">
+      <c r="D86" s="23">
         <v>100</v>
       </c>
-      <c r="D86" s="23">
+      <c r="E86" s="23">
         <v>6</v>
       </c>
-      <c r="E86" s="23">
+      <c r="F86" s="23">
         <v>7</v>
-      </c>
-      <c r="F86" s="39" t="s">
-        <v>87</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>39</v>
@@ -4877,14 +4914,14 @@
       <c r="M86" s="26"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="23">
+      <c r="C87" s="23">
         <v>0.02</v>
-      </c>
-      <c r="C87" s="23">
-        <v>5</v>
       </c>
       <c r="D87" s="23">
         <v>5</v>
@@ -4892,8 +4929,8 @@
       <c r="E87" s="23">
         <v>5</v>
       </c>
-      <c r="F87" s="39" t="s">
-        <v>89</v>
+      <c r="F87" s="23">
+        <v>5</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>39</v>
@@ -4916,14 +4953,14 @@
       <c r="M87" s="26"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="23">
+      <c r="C88" s="23">
         <v>0.02</v>
-      </c>
-      <c r="C88" s="23">
-        <v>5</v>
       </c>
       <c r="D88" s="23">
         <v>5</v>
@@ -4931,8 +4968,8 @@
       <c r="E88" s="23">
         <v>5</v>
       </c>
-      <c r="F88" s="39" t="s">
-        <v>89</v>
+      <c r="F88" s="23">
+        <v>5</v>
       </c>
       <c r="G88" s="23" t="s">
         <v>39</v>
@@ -4955,23 +4992,23 @@
       <c r="M88" s="26"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="23">
+      <c r="C89" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C89" s="23">
+      <c r="D89" s="23">
         <v>120</v>
-      </c>
-      <c r="D89" s="23">
-        <v>25</v>
       </c>
       <c r="E89" s="23">
         <v>25</v>
       </c>
-      <c r="F89" s="39" t="s">
-        <v>59</v>
+      <c r="F89" s="23">
+        <v>25</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>39</v>
@@ -4994,23 +5031,23 @@
       <c r="M89" s="26"/>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="23">
+      <c r="C90" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C90" s="23">
+      <c r="D90" s="23">
         <v>120</v>
-      </c>
-      <c r="D90" s="23">
-        <v>25</v>
       </c>
       <c r="E90" s="23">
         <v>25</v>
       </c>
-      <c r="F90" s="39" t="s">
-        <v>59</v>
+      <c r="F90" s="23">
+        <v>25</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>39</v>
@@ -5033,23 +5070,23 @@
       <c r="M90" s="26"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="23">
+      <c r="C91" s="23">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C91" s="23">
+      <c r="D91" s="23">
         <v>55</v>
       </c>
-      <c r="D91" s="23">
+      <c r="E91" s="23">
         <v>35</v>
       </c>
-      <c r="E91" s="23">
+      <c r="F91" s="23">
         <v>20</v>
-      </c>
-      <c r="F91" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>39</v>
@@ -5072,23 +5109,23 @@
       <c r="M91" s="26"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="23">
+      <c r="C92" s="23">
         <v>0.38</v>
       </c>
-      <c r="C92" s="23">
+      <c r="D92" s="23">
         <v>15</v>
-      </c>
-      <c r="D92" s="23">
-        <v>3</v>
       </c>
       <c r="E92" s="23">
         <v>3</v>
       </c>
-      <c r="F92" s="39" t="s">
-        <v>65</v>
+      <c r="F92" s="23">
+        <v>3</v>
       </c>
       <c r="G92" s="23" t="s">
         <v>39</v>
@@ -5111,23 +5148,23 @@
       <c r="M92" s="26"/>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="23">
+      <c r="C93" s="23">
         <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C93" s="23">
-        <v>15</v>
       </c>
       <c r="D93" s="23">
         <v>15</v>
       </c>
       <c r="E93" s="23">
+        <v>15</v>
+      </c>
+      <c r="F93" s="23">
         <v>10</v>
-      </c>
-      <c r="F93" s="39" t="s">
-        <v>91</v>
       </c>
       <c r="G93" s="23" t="s">
         <v>39</v>
@@ -5150,23 +5187,23 @@
       <c r="M93" s="26"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="23">
+      <c r="C94" s="23">
         <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C94" s="23">
-        <v>15</v>
       </c>
       <c r="D94" s="23">
         <v>15</v>
       </c>
       <c r="E94" s="23">
+        <v>15</v>
+      </c>
+      <c r="F94" s="23">
         <v>10</v>
-      </c>
-      <c r="F94" s="39" t="s">
-        <v>91</v>
       </c>
       <c r="G94" s="23" t="s">
         <v>39</v>
@@ -5189,23 +5226,23 @@
       <c r="M94" s="26"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="23">
+      <c r="C95" s="23">
         <v>2</v>
       </c>
-      <c r="C95" s="23">
+      <c r="D95" s="23">
         <v>45</v>
       </c>
-      <c r="D95" s="23">
+      <c r="E95" s="23">
         <v>35</v>
       </c>
-      <c r="E95" s="23">
+      <c r="F95" s="23">
         <v>25</v>
-      </c>
-      <c r="F95" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>39</v>
@@ -5228,23 +5265,23 @@
       <c r="M95" s="26"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="23">
+      <c r="C96" s="23">
         <v>5.53</v>
       </c>
-      <c r="C96" s="23">
+      <c r="D96" s="23">
         <v>45</v>
       </c>
-      <c r="D96" s="23">
+      <c r="E96" s="23">
         <v>35</v>
       </c>
-      <c r="E96" s="23">
+      <c r="F96" s="23">
         <v>25</v>
-      </c>
-      <c r="F96" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>39</v>
@@ -5267,23 +5304,23 @@
       <c r="M96" s="26"/>
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="23">
+      <c r="C97" s="23">
         <v>5.53</v>
       </c>
-      <c r="C97" s="23">
+      <c r="D97" s="23">
         <v>45</v>
       </c>
-      <c r="D97" s="23">
+      <c r="E97" s="23">
         <v>35</v>
       </c>
-      <c r="E97" s="23">
+      <c r="F97" s="23">
         <v>25</v>
-      </c>
-      <c r="F97" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="G97" s="23" t="s">
         <v>39</v>
@@ -5306,23 +5343,23 @@
       <c r="M97" s="26"/>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="23">
+      <c r="C98" s="23">
         <v>2</v>
       </c>
-      <c r="C98" s="23">
+      <c r="D98" s="23">
         <v>45</v>
       </c>
-      <c r="D98" s="23">
+      <c r="E98" s="23">
         <v>35</v>
       </c>
-      <c r="E98" s="23">
+      <c r="F98" s="23">
         <v>25</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>39</v>
@@ -5345,23 +5382,23 @@
       <c r="M98" s="26"/>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="23">
+      <c r="C99" s="23">
         <v>2</v>
       </c>
-      <c r="C99" s="23">
+      <c r="D99" s="23">
         <v>45</v>
       </c>
-      <c r="D99" s="23">
+      <c r="E99" s="23">
         <v>35</v>
       </c>
-      <c r="E99" s="23">
+      <c r="F99" s="23">
         <v>25</v>
-      </c>
-      <c r="F99" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G99" s="23" t="s">
         <v>39</v>
@@ -5384,23 +5421,23 @@
       <c r="M99" s="26"/>
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B100" s="23">
+      <c r="C100" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C100" s="23">
+      <c r="D100" s="23">
         <v>120</v>
-      </c>
-      <c r="D100" s="23">
-        <v>25</v>
       </c>
       <c r="E100" s="23">
         <v>25</v>
       </c>
-      <c r="F100" s="39" t="s">
-        <v>59</v>
+      <c r="F100" s="23">
+        <v>25</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>39</v>
@@ -5423,23 +5460,23 @@
       <c r="M100" s="26"/>
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="23">
+      <c r="C101" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C101" s="23">
+      <c r="D101" s="23">
         <v>120</v>
-      </c>
-      <c r="D101" s="23">
-        <v>25</v>
       </c>
       <c r="E101" s="23">
         <v>25</v>
       </c>
-      <c r="F101" s="39" t="s">
-        <v>59</v>
+      <c r="F101" s="23">
+        <v>25</v>
       </c>
       <c r="G101" s="23" t="s">
         <v>39</v>
@@ -5462,23 +5499,23 @@
       <c r="M101" s="26"/>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="23">
+      <c r="C102" s="23">
         <v>6.5</v>
       </c>
-      <c r="C102" s="23">
+      <c r="D102" s="23">
         <v>55</v>
       </c>
-      <c r="D102" s="23">
+      <c r="E102" s="23">
         <v>45</v>
       </c>
-      <c r="E102" s="23">
+      <c r="F102" s="23">
         <v>30</v>
-      </c>
-      <c r="F102" s="39" t="s">
-        <v>83</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>39</v>
@@ -5501,23 +5538,23 @@
       <c r="M102" s="26"/>
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="23">
+      <c r="C103" s="23">
         <v>5.53</v>
       </c>
-      <c r="C103" s="23">
+      <c r="D103" s="23">
         <v>45</v>
       </c>
-      <c r="D103" s="23">
+      <c r="E103" s="23">
         <v>35</v>
       </c>
-      <c r="E103" s="23">
+      <c r="F103" s="23">
         <v>25</v>
-      </c>
-      <c r="F103" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>39</v>
@@ -5540,23 +5577,23 @@
       <c r="M103" s="26"/>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="23">
+      <c r="C104" s="23">
         <v>2</v>
       </c>
-      <c r="C104" s="23">
+      <c r="D104" s="23">
         <v>45</v>
       </c>
-      <c r="D104" s="23">
+      <c r="E104" s="23">
         <v>35</v>
       </c>
-      <c r="E104" s="23">
+      <c r="F104" s="23">
         <v>25</v>
-      </c>
-      <c r="F104" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>39</v>
@@ -5579,23 +5616,23 @@
       <c r="M104" s="26"/>
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="23">
+      <c r="C105" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C105" s="23">
+      <c r="D105" s="23">
         <v>120</v>
-      </c>
-      <c r="D105" s="23">
-        <v>25</v>
       </c>
       <c r="E105" s="23">
         <v>25</v>
       </c>
-      <c r="F105" s="39" t="s">
-        <v>59</v>
+      <c r="F105" s="23">
+        <v>25</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>39</v>
@@ -5619,22 +5656,22 @@
     </row>
     <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>5.53</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>45</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>35</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>25</v>
-      </c>
-      <c r="F106" t="s">
-        <v>55</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -5658,22 +5695,22 @@
     </row>
     <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
         <v>56</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>2</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>45</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>35</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>25</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -5697,22 +5734,22 @@
     </row>
     <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" t="s">
         <v>58</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>120</v>
-      </c>
-      <c r="D108">
-        <v>25</v>
       </c>
       <c r="E108">
         <v>25</v>
       </c>
-      <c r="F108" t="s">
-        <v>59</v>
+      <c r="F108">
+        <v>25</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -5736,22 +5773,22 @@
     </row>
     <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" t="s">
         <v>54</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>5.53</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>45</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>35</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>25</v>
-      </c>
-      <c r="F109" t="s">
-        <v>55</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -5775,22 +5812,22 @@
     </row>
     <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" t="s">
         <v>56</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>2</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>45</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>35</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>25</v>
-      </c>
-      <c r="F110" t="s">
-        <v>57</v>
       </c>
       <c r="G110" t="s">
         <v>39</v>
@@ -5814,22 +5851,22 @@
     </row>
     <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" t="s">
         <v>58</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>120</v>
-      </c>
-      <c r="D111">
-        <v>25</v>
       </c>
       <c r="E111">
         <v>25</v>
       </c>
-      <c r="F111" t="s">
-        <v>59</v>
+      <c r="F111">
+        <v>25</v>
       </c>
       <c r="G111" t="s">
         <v>39</v>
@@ -5853,22 +5890,22 @@
     </row>
     <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112" t="s">
         <v>76</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>2.41</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>55</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>45</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>35</v>
-      </c>
-      <c r="F112" t="s">
-        <v>77</v>
       </c>
       <c r="G112" t="s">
         <v>39</v>
@@ -5892,22 +5929,22 @@
     </row>
     <row r="113" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" t="s">
         <v>78</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>4</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>45</v>
-      </c>
-      <c r="D113">
-        <v>30</v>
       </c>
       <c r="E113">
         <v>30</v>
       </c>
-      <c r="F113" t="s">
-        <v>79</v>
+      <c r="F113">
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>39</v>
@@ -5931,22 +5968,22 @@
     </row>
     <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" t="s">
         <v>60</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>8.5</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>120</v>
-      </c>
-      <c r="D114">
-        <v>55</v>
       </c>
       <c r="E114">
         <v>55</v>
       </c>
-      <c r="F114" t="s">
-        <v>61</v>
+      <c r="F114">
+        <v>55</v>
       </c>
       <c r="G114" t="s">
         <v>39</v>
@@ -5970,22 +6007,22 @@
     </row>
     <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
         <v>56</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>2</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>45</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>35</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>25</v>
-      </c>
-      <c r="F115" t="s">
-        <v>57</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -6009,22 +6046,22 @@
     </row>
     <row r="116" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
         <v>56</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>2</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>45</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>35</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>25</v>
-      </c>
-      <c r="F116" t="s">
-        <v>57</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -6048,22 +6085,22 @@
     </row>
     <row r="117" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" t="s">
         <v>54</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>5.53</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>45</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>35</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>25</v>
-      </c>
-      <c r="F117" t="s">
-        <v>55</v>
       </c>
       <c r="G117" t="s">
         <v>39</v>
@@ -6087,22 +6124,22 @@
     </row>
     <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
         <v>60</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>8.5</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>120</v>
-      </c>
-      <c r="D118">
-        <v>55</v>
       </c>
       <c r="E118">
         <v>55</v>
       </c>
-      <c r="F118" t="s">
-        <v>61</v>
+      <c r="F118">
+        <v>55</v>
       </c>
       <c r="G118" t="s">
         <v>39</v>
@@ -6126,22 +6163,22 @@
     </row>
     <row r="119" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" t="s">
         <v>56</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>2</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>45</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>35</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>25</v>
-      </c>
-      <c r="F119" t="s">
-        <v>57</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -6165,22 +6202,22 @@
     </row>
     <row r="120" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" t="s">
         <v>56</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>2</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>45</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>35</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>25</v>
-      </c>
-      <c r="F120" t="s">
-        <v>57</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -6204,22 +6241,22 @@
     </row>
     <row r="121" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" t="s">
         <v>54</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>5.53</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>45</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>35</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>25</v>
-      </c>
-      <c r="F121" t="s">
-        <v>55</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -6243,22 +6280,22 @@
     </row>
     <row r="122" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
         <v>60</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>8.5</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>120</v>
-      </c>
-      <c r="D122">
-        <v>55</v>
       </c>
       <c r="E122">
         <v>55</v>
       </c>
-      <c r="F122" t="s">
-        <v>61</v>
+      <c r="F122">
+        <v>55</v>
       </c>
       <c r="G122" t="s">
         <v>39</v>
@@ -6282,22 +6319,22 @@
     </row>
     <row r="123" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" t="s">
         <v>56</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>2</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>45</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>35</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>25</v>
-      </c>
-      <c r="F123" t="s">
-        <v>57</v>
       </c>
       <c r="G123" t="s">
         <v>39</v>
@@ -6321,22 +6358,22 @@
     </row>
     <row r="124" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
         <v>56</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>2</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>45</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>35</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>25</v>
-      </c>
-      <c r="F124" t="s">
-        <v>57</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -6360,22 +6397,22 @@
     </row>
     <row r="125" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
         <v>54</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>5.53</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>45</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>35</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>25</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -6399,22 +6436,22 @@
     </row>
     <row r="126" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
         <v>37</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>12.404999999999999</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>45</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>35</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>25</v>
-      </c>
-      <c r="F126" t="s">
-        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -6438,22 +6475,22 @@
     </row>
     <row r="127" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
         <v>42</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>14.29</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>120</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>60</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>55</v>
-      </c>
-      <c r="F127" t="s">
-        <v>43</v>
       </c>
       <c r="G127" t="s">
         <v>39</v>
@@ -6477,22 +6514,22 @@
     </row>
     <row r="128" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
         <v>58</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>120</v>
-      </c>
-      <c r="D128">
-        <v>25</v>
       </c>
       <c r="E128">
         <v>25</v>
       </c>
-      <c r="F128" t="s">
-        <v>59</v>
+      <c r="F128">
+        <v>25</v>
       </c>
       <c r="G128" t="s">
         <v>39</v>
@@ -6516,22 +6553,22 @@
     </row>
     <row r="129" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" t="s">
         <v>62</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>55</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>35</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>20</v>
-      </c>
-      <c r="F129" t="s">
-        <v>63</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -6555,22 +6592,22 @@
     </row>
     <row r="130" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" t="s">
         <v>64</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>0.38</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>15</v>
-      </c>
-      <c r="D130">
-        <v>3</v>
       </c>
       <c r="E130">
         <v>3</v>
       </c>
-      <c r="F130" t="s">
-        <v>65</v>
+      <c r="F130">
+        <v>3</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -6594,22 +6631,22 @@
     </row>
     <row r="131" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" t="s">
         <v>54</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>5.53</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>45</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>35</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>25</v>
-      </c>
-      <c r="F131" t="s">
-        <v>55</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -6633,22 +6670,22 @@
     </row>
     <row r="132" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" t="s">
         <v>56</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>2</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>45</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>35</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>25</v>
-      </c>
-      <c r="F132" t="s">
-        <v>57</v>
       </c>
       <c r="G132" t="s">
         <v>39</v>
@@ -6672,22 +6709,22 @@
     </row>
     <row r="133" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
         <v>58</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>120</v>
-      </c>
-      <c r="D133">
-        <v>25</v>
       </c>
       <c r="E133">
         <v>25</v>
       </c>
-      <c r="F133" t="s">
-        <v>59</v>
+      <c r="F133">
+        <v>25</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -6711,22 +6748,22 @@
     </row>
     <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
         <v>62</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>55</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>35</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>63</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -6750,22 +6787,22 @@
     </row>
     <row r="135" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" t="s">
         <v>64</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>0.38</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>15</v>
-      </c>
-      <c r="D135">
-        <v>3</v>
       </c>
       <c r="E135">
         <v>3</v>
       </c>
-      <c r="F135" t="s">
-        <v>65</v>
+      <c r="F135">
+        <v>3</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -6789,22 +6826,22 @@
     </row>
     <row r="136" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" t="s">
         <v>92</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>0.69199999999999995</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>10</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>11</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>93</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -6828,22 +6865,22 @@
     </row>
     <row r="137" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" t="s">
         <v>94</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>1.1819999999999999</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>45</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>25</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>28</v>
-      </c>
-      <c r="F137" t="s">
-        <v>95</v>
       </c>
       <c r="G137" t="s">
         <v>39</v>
@@ -6867,22 +6904,22 @@
     </row>
     <row r="138" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" t="s">
         <v>96</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>32</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>55</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>50</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>25</v>
-      </c>
-      <c r="F138" t="s">
-        <v>97</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -6906,22 +6943,22 @@
     </row>
     <row r="139" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B139" t="s">
         <v>98</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>14.331</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>55</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>45</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>35</v>
-      </c>
-      <c r="F139" t="s">
-        <v>99</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -6945,22 +6982,22 @@
     </row>
     <row r="140" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140" t="s">
         <v>100</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>11.5</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>55</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>70</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>75</v>
-      </c>
-      <c r="F140" t="s">
-        <v>101</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -6984,22 +7021,22 @@
     </row>
     <row r="141" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" t="s">
         <v>102</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>19.100000000000001</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>45</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>67</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>70</v>
-      </c>
-      <c r="F141" t="s">
-        <v>103</v>
       </c>
       <c r="G141" t="s">
         <v>39</v>
@@ -7023,22 +7060,22 @@
     </row>
     <row r="142" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" t="s">
         <v>104</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>0.43099999999999999</v>
-      </c>
-      <c r="C142">
-        <v>10</v>
       </c>
       <c r="D142">
         <v>10</v>
       </c>
       <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
         <v>3</v>
-      </c>
-      <c r="F142" t="s">
-        <v>105</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -7062,13 +7099,13 @@
     </row>
     <row r="143" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" t="s">
         <v>106</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>12.741</v>
-      </c>
-      <c r="C143">
-        <v>45</v>
       </c>
       <c r="D143">
         <v>45</v>
@@ -7076,8 +7113,8 @@
       <c r="E143">
         <v>45</v>
       </c>
-      <c r="F143" t="s">
-        <v>107</v>
+      <c r="F143">
+        <v>45</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -7101,22 +7138,22 @@
     </row>
     <row r="144" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>63</v>
+      </c>
+      <c r="B144" t="s">
         <v>62</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>55</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>35</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>20</v>
-      </c>
-      <c r="F144" t="s">
-        <v>63</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -7140,22 +7177,22 @@
     </row>
     <row r="145" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" t="s">
         <v>64</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>0.38</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>15</v>
-      </c>
-      <c r="D145">
-        <v>3</v>
       </c>
       <c r="E145">
         <v>3</v>
       </c>
-      <c r="F145" t="s">
-        <v>65</v>
+      <c r="F145">
+        <v>3</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -7179,22 +7216,22 @@
     </row>
     <row r="146" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" t="s">
         <v>108</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>5.7</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>30</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>37</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>35</v>
-      </c>
-      <c r="F146" t="s">
-        <v>109</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -7218,22 +7255,22 @@
     </row>
     <row r="147" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" t="s">
         <v>110</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>0.46</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>0.5</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>28</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>21</v>
-      </c>
-      <c r="F147" t="s">
-        <v>111</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -7257,22 +7294,22 @@
     </row>
     <row r="148" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" t="s">
         <v>112</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>2.5</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>15</v>
-      </c>
-      <c r="D148">
-        <v>20</v>
       </c>
       <c r="E148">
         <v>20</v>
       </c>
-      <c r="F148" t="s">
-        <v>113</v>
+      <c r="F148">
+        <v>20</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -7296,22 +7333,22 @@
     </row>
     <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" t="s">
         <v>66</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>0.2</v>
-      </c>
-      <c r="C149">
-        <v>4</v>
       </c>
       <c r="D149">
         <v>4</v>
       </c>
       <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
         <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>67</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -7335,22 +7372,22 @@
     </row>
     <row r="150" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" t="s">
         <v>114</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>0.59799999999999998</v>
-      </c>
-      <c r="C150">
-        <v>4</v>
       </c>
       <c r="D150">
         <v>4</v>
       </c>
       <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
         <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>115</v>
       </c>
       <c r="G150" t="s">
         <v>39</v>
@@ -7374,22 +7411,22 @@
     </row>
     <row r="151" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" t="s">
         <v>62</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>8.7710000000000008</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>55</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>35</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>20</v>
-      </c>
-      <c r="F151" t="s">
-        <v>63</v>
       </c>
       <c r="G151" t="s">
         <v>39</v>
@@ -7413,22 +7450,22 @@
     </row>
     <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" t="s">
         <v>64</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>0.38</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>15</v>
-      </c>
-      <c r="D152">
-        <v>3</v>
       </c>
       <c r="E152">
         <v>3</v>
       </c>
-      <c r="F152" t="s">
-        <v>65</v>
+      <c r="F152">
+        <v>3</v>
       </c>
       <c r="G152" t="s">
         <v>39</v>
@@ -7452,22 +7489,22 @@
     </row>
     <row r="153" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" t="s">
         <v>58</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>120</v>
-      </c>
-      <c r="D153">
-        <v>25</v>
       </c>
       <c r="E153">
         <v>25</v>
       </c>
-      <c r="F153" t="s">
-        <v>59</v>
+      <c r="F153">
+        <v>25</v>
       </c>
       <c r="G153" t="s">
         <v>39</v>
@@ -7491,22 +7528,22 @@
     </row>
     <row r="154" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" t="s">
         <v>116</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>1.54</v>
-      </c>
-      <c r="C154">
-        <v>10</v>
       </c>
       <c r="D154">
         <v>10</v>
       </c>
       <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
         <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>117</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -7530,22 +7567,22 @@
     </row>
     <row r="155" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>93</v>
+      </c>
+      <c r="B155" t="s">
         <v>92</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>0.69199999999999995</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>10</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>11</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>10</v>
-      </c>
-      <c r="F155" t="s">
-        <v>93</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -7569,22 +7606,22 @@
     </row>
     <row r="156" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" t="s">
         <v>44</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>0.68400000000000005</v>
-      </c>
-      <c r="C156">
-        <v>4</v>
       </c>
       <c r="D156">
         <v>4</v>
       </c>
       <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156">
         <v>9</v>
-      </c>
-      <c r="F156" t="s">
-        <v>45</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -7608,22 +7645,22 @@
     </row>
     <row r="157" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
         <v>66</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>0.2</v>
-      </c>
-      <c r="C157">
-        <v>4</v>
       </c>
       <c r="D157">
         <v>4</v>
       </c>
       <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157">
         <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>67</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -7647,22 +7684,22 @@
     </row>
     <row r="158" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" t="s">
         <v>46</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>0.08</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>9</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
       </c>
       <c r="E158">
         <v>5</v>
       </c>
-      <c r="F158" t="s">
-        <v>47</v>
+      <c r="F158">
+        <v>5</v>
       </c>
       <c r="G158" t="s">
         <v>39</v>
@@ -7686,22 +7723,22 @@
     </row>
     <row r="159" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
         <v>48</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>0.12</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>9</v>
-      </c>
-      <c r="D159">
-        <v>4</v>
       </c>
       <c r="E159">
         <v>4</v>
       </c>
-      <c r="F159" t="s">
-        <v>49</v>
+      <c r="F159">
+        <v>4</v>
       </c>
       <c r="G159" t="s">
         <v>39</v>
@@ -7725,22 +7762,22 @@
     </row>
     <row r="160" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>51</v>
+      </c>
+      <c r="B160" t="s">
         <v>50</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>0.17</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>9</v>
-      </c>
-      <c r="D160">
-        <v>4</v>
       </c>
       <c r="E160">
         <v>4</v>
       </c>
-      <c r="F160" t="s">
-        <v>51</v>
+      <c r="F160">
+        <v>4</v>
       </c>
       <c r="G160" t="s">
         <v>39</v>
@@ -7764,22 +7801,22 @@
     </row>
     <row r="161" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>69</v>
+      </c>
+      <c r="B161" t="s">
         <v>68</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>0.12</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>15</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
       </c>
       <c r="E161">
         <v>5</v>
       </c>
-      <c r="F161" t="s">
-        <v>69</v>
+      <c r="F161">
+        <v>5</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -7803,22 +7840,22 @@
     </row>
     <row r="162" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" t="s">
         <v>116</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>1.54</v>
-      </c>
-      <c r="C162">
-        <v>10</v>
       </c>
       <c r="D162">
         <v>10</v>
       </c>
       <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
         <v>5</v>
-      </c>
-      <c r="F162" t="s">
-        <v>117</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -7842,22 +7879,22 @@
     </row>
     <row r="163" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" t="s">
         <v>92</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>0.69199999999999995</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>10</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>11</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>10</v>
-      </c>
-      <c r="F163" t="s">
-        <v>93</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -7881,22 +7918,22 @@
     </row>
     <row r="164" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164" t="s">
         <v>108</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>5.7</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>30</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>37</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>35</v>
-      </c>
-      <c r="F164" t="s">
-        <v>109</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -7920,22 +7957,22 @@
     </row>
     <row r="165" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>111</v>
+      </c>
+      <c r="B165" t="s">
         <v>110</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>0.46</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>0.5</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>28</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>21</v>
-      </c>
-      <c r="F165" t="s">
-        <v>111</v>
       </c>
       <c r="G165" t="s">
         <v>39</v>
@@ -7959,22 +7996,22 @@
     </row>
     <row r="166" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>113</v>
+      </c>
+      <c r="B166" t="s">
         <v>112</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>2.5</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>15</v>
-      </c>
-      <c r="D166">
-        <v>20</v>
       </c>
       <c r="E166">
         <v>20</v>
       </c>
-      <c r="F166" t="s">
-        <v>113</v>
+      <c r="F166">
+        <v>20</v>
       </c>
       <c r="G166" t="s">
         <v>39</v>
@@ -7998,23 +8035,23 @@
     </row>
     <row r="167" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
         <v>42</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>14.29</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>120</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>60</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>55</v>
       </c>
-      <c r="F167" t="s">
-        <v>43</v>
-      </c>
       <c r="G167" t="s">
         <v>39</v>
       </c>
@@ -8022,7 +8059,7 @@
         <v>40</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
         <v>41</v>
@@ -8038,8 +8075,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G3:J15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G20:G105" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -8048,25 +8085,25 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J20:J105" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"COP, EUR, USD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"IES,PROYECTOS,DINÁMICO,PRESIDENCIA,EDUCACIÓN BÁSICA,INSTRUMENTACION,MANTENIMIENTOS"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"MARIA MERCEDES,LUIS CAÑON,JEIMY CADENA,JIMMY ORTIZ"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"ANDRES CUESTAS,CAROLINA GAITÁN,DANIELA CRISTANCHO,ESTEBAN RAMIREZ, NELIS FABREGAS,ROCIO BARÓN,CHRISTIAN ROMERO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"JORGE RODRIGUEZ"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"FRANK GALVAN, DORIS MONTEROSA, CRISTINA SIERRA"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E12" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F12" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"DAVID HERRERA,JOAN PORRAS,NICOLAS HERRERA, ANDRES BOHORQUEZ,WILMER CRUZ,JORGE RODRIGUEZ,CRISTIAN MUÑOZ"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E17" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F17" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"COP,USD,EUR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8103,7 +8140,7 @@
         <v>119</v>
       </c>
       <c r="F6" s="51" t="str">
-        <f>SOLICITUD!E14</f>
+        <f>SOLICITUD!F14</f>
         <v>BOGOTÁ</v>
       </c>
     </row>
@@ -8142,12 +8179,12 @@
       <c r="F10" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="33" t="s">
@@ -8164,10 +8201,10 @@
         <f t="shared" ref="F11:F17" si="0">D11*E11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="33" t="s">
@@ -8184,10 +8221,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="33" t="s">
@@ -8204,10 +8241,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="33" t="s">
@@ -8225,10 +8262,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="33" t="s">
@@ -8245,10 +8282,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="33" t="s">
@@ -9960,19 +9997,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
@@ -9996,10 +10033,10 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>199</v>
